--- a/Report/mid/data.xlsx
+++ b/Report/mid/data.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toyama\Documents\Research\Report\mid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F836DD5C-22C8-4F52-B690-31A5998E5989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20987194-5A54-4A83-9872-7FEB1574359A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17920" yWindow="5070" windowWidth="20020" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27110" yWindow="1300" windowWidth="20020" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>y</t>
     <phoneticPr fontId="1"/>
@@ -40,6 +51,30 @@
   </si>
   <si>
     <t>z_p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>old</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>new</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>εx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>εy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>εz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -100,6 +135,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5944CDCD-FCE9-5197-D0E2-2CEED96ED810}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12166600" y="4972050"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -365,15 +460,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E15"/>
+  <dimension ref="B1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="1" spans="2:12">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -386,8 +489,23 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:5">
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
       <c r="B3">
         <v>0</v>
       </c>
@@ -400,8 +518,23 @@
       <c r="E3">
         <v>700</v>
       </c>
-    </row>
-    <row r="4" spans="2:5">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
       <c r="B4">
         <v>300</v>
       </c>
@@ -414,8 +547,23 @@
       <c r="E4">
         <v>694</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
+      <c r="H4">
+        <v>300</v>
+      </c>
+      <c r="I4">
+        <v>11</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
       <c r="B5">
         <v>450</v>
       </c>
@@ -428,8 +576,23 @@
       <c r="E5">
         <v>696</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="H5">
+        <v>450</v>
+      </c>
+      <c r="I5">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
       <c r="B6">
         <v>600</v>
       </c>
@@ -442,22 +605,52 @@
       <c r="E6">
         <v>692</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
+      <c r="H6">
+        <v>600</v>
+      </c>
+      <c r="I6">
+        <v>16</v>
+      </c>
+      <c r="J6">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
       <c r="B7">
         <v>900</v>
       </c>
       <c r="C7">
-        <v>-839</v>
+        <v>-853</v>
       </c>
       <c r="D7">
         <v>891</v>
       </c>
       <c r="E7">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
+        <v>684</v>
+      </c>
+      <c r="H7">
+        <v>900</v>
+      </c>
+      <c r="I7">
+        <v>56</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>21</v>
+      </c>
+      <c r="L7">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -470,8 +663,23 @@
       <c r="E10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
       <c r="B11">
         <v>0</v>
       </c>
@@ -484,8 +692,23 @@
       <c r="E11">
         <v>649</v>
       </c>
-    </row>
-    <row r="12" spans="2:5">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>106</v>
+      </c>
+      <c r="J11">
+        <v>16</v>
+      </c>
+      <c r="K11">
+        <v>39</v>
+      </c>
+      <c r="L11">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
       <c r="B12">
         <v>300</v>
       </c>
@@ -498,8 +721,23 @@
       <c r="E12">
         <v>652</v>
       </c>
-    </row>
-    <row r="13" spans="2:5">
+      <c r="H12">
+        <v>300</v>
+      </c>
+      <c r="I12">
+        <v>155</v>
+      </c>
+      <c r="J12">
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <v>53</v>
+      </c>
+      <c r="L12">
+        <v>4116</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
       <c r="B13">
         <v>450</v>
       </c>
@@ -512,8 +750,23 @@
       <c r="E13">
         <v>651</v>
       </c>
-    </row>
-    <row r="14" spans="2:5">
+      <c r="H13">
+        <v>450</v>
+      </c>
+      <c r="I13">
+        <v>150</v>
+      </c>
+      <c r="J13">
+        <v>9</v>
+      </c>
+      <c r="K13">
+        <v>54</v>
+      </c>
+      <c r="L13">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
       <c r="B14">
         <v>600</v>
       </c>
@@ -526,8 +779,23 @@
       <c r="E14">
         <v>647</v>
       </c>
-    </row>
-    <row r="15" spans="2:5">
+      <c r="H14">
+        <v>600</v>
+      </c>
+      <c r="I14">
+        <v>156</v>
+      </c>
+      <c r="J14">
+        <v>25</v>
+      </c>
+      <c r="K14">
+        <v>47</v>
+      </c>
+      <c r="L14">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
       <c r="B15">
         <v>900</v>
       </c>
@@ -539,11 +807,27 @@
       </c>
       <c r="E15">
         <v>648</v>
+      </c>
+      <c r="H15">
+        <v>900</v>
+      </c>
+      <c r="I15">
+        <v>163</v>
+      </c>
+      <c r="J15">
+        <v>48</v>
+      </c>
+      <c r="K15">
+        <v>47</v>
+      </c>
+      <c r="L15">
+        <v>4741</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Report/mid/data.xlsx
+++ b/Report/mid/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toyama\Documents\Research\Report\mid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\Research\Report\mid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20987194-5A54-4A83-9872-7FEB1574359A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CD6BAB-EF53-4DCA-9221-9CFBEE3D2333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27110" yWindow="1300" windowWidth="20020" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -460,15 +460,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L15"/>
+  <dimension ref="B1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="2:13">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -476,7 +476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:13">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -505,7 +505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:13">
       <c r="B3">
         <v>0</v>
       </c>
@@ -534,7 +534,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:13">
       <c r="B4">
         <v>300</v>
       </c>
@@ -563,7 +563,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:13">
       <c r="B5">
         <v>450</v>
       </c>
@@ -592,7 +592,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:13">
       <c r="B6">
         <v>600</v>
       </c>
@@ -621,7 +621,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:13">
       <c r="B7">
         <v>900</v>
       </c>
@@ -649,8 +649,12 @@
       <c r="L7">
         <v>211</v>
       </c>
-    </row>
-    <row r="10" spans="2:12">
+      <c r="M7">
+        <f>SUM(I3:K7)</f>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -679,7 +683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:13">
       <c r="B11">
         <v>0</v>
       </c>
@@ -708,7 +712,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:13">
       <c r="B12">
         <v>300</v>
       </c>
@@ -737,7 +741,7 @@
         <v>4116</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:13">
       <c r="B13">
         <v>450</v>
       </c>
@@ -766,7 +770,7 @@
         <v>3405</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:13">
       <c r="B14">
         <v>600</v>
       </c>
@@ -795,7 +799,7 @@
         <v>3270</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:13">
       <c r="B15">
         <v>900</v>
       </c>
@@ -822,6 +826,10 @@
       </c>
       <c r="L15">
         <v>4741</v>
+      </c>
+      <c r="M15">
+        <f>SUM(I11:I15,K11:K15)</f>
+        <v>970</v>
       </c>
     </row>
   </sheetData>

--- a/Report/mid/data.xlsx
+++ b/Report/mid/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\Research\Report\mid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toyama\Documents\Research\Report\mid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CD6BAB-EF53-4DCA-9221-9CFBEE3D2333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30677B87-FD60-4971-8DBC-07C749B20451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>y</t>
     <phoneticPr fontId="1"/>
@@ -75,6 +75,32 @@
   </si>
   <si>
     <t>R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X平均誤差[mm]</t>
+    <rPh sb="1" eb="3">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゴサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y平均誤差[mm]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Z平均誤差[mm]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パターン1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パターン2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -106,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -114,12 +140,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -460,15 +520,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M15"/>
+  <dimension ref="B1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="P2" sqref="P2:S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="16" max="16" width="10.33203125" customWidth="1"/>
+    <col min="17" max="17" width="14.25" customWidth="1"/>
+    <col min="18" max="18" width="14.08203125" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:13">
+    <row r="1" spans="2:19">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -476,7 +542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:19">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -504,8 +570,18 @@
       <c r="L2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="2:13">
+      <c r="P2" s="1"/>
+      <c r="Q2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19">
       <c r="B3">
         <v>0</v>
       </c>
@@ -533,8 +609,20 @@
       <c r="L3">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="2:13">
+      <c r="P3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>21.4</v>
+      </c>
+      <c r="R3" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="S3" s="2">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19">
       <c r="B4">
         <v>300</v>
       </c>
@@ -562,8 +650,20 @@
       <c r="L4">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="2:13">
+      <c r="P4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>146</v>
+      </c>
+      <c r="R4" s="2">
+        <v>20.8</v>
+      </c>
+      <c r="S4" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19">
       <c r="B5">
         <v>450</v>
       </c>
@@ -592,7 +692,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:19">
       <c r="B6">
         <v>600</v>
       </c>
@@ -621,7 +721,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:19">
       <c r="B7">
         <v>900</v>
       </c>
@@ -654,7 +754,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:19">
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -683,7 +783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:19">
       <c r="B11">
         <v>0</v>
       </c>
@@ -712,7 +812,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:19">
       <c r="B12">
         <v>300</v>
       </c>
@@ -741,7 +841,7 @@
         <v>4116</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:19">
       <c r="B13">
         <v>450</v>
       </c>
@@ -770,7 +870,7 @@
         <v>3405</v>
       </c>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:19">
       <c r="B14">
         <v>600</v>
       </c>
@@ -799,7 +899,7 @@
         <v>3270</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:19">
       <c r="B15">
         <v>900</v>
       </c>
